--- a/Symphony/DECEMBER/09.12.2021/MC Bank Statement December-2021.xlsx
+++ b/Symphony/DECEMBER/09.12.2021/MC Bank Statement December-2021.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="229">
   <si>
     <t>Date</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>Bank</t>
-  </si>
-  <si>
-    <t>N=Mobile Park</t>
   </si>
   <si>
     <t>B=Hossain Telecom</t>
@@ -766,6 +763,15 @@
   </si>
   <si>
     <t>Nandangachi</t>
+  </si>
+  <si>
+    <t>Nan=Hasan Telecom</t>
+  </si>
+  <si>
+    <t>Arotor Paser Dada</t>
+  </si>
+  <si>
+    <t>bKash Jafor(-)</t>
   </si>
 </sst>
 </file>
@@ -3022,12 +3028,6 @@
     <xf numFmtId="0" fontId="6" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3052,6 +3052,12 @@
     <xf numFmtId="1" fontId="35" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3063,12 +3069,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3101,6 +3101,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3884,7 +3890,7 @@
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="322"/>
       <c r="B3" s="320" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="320"/>
       <c r="D3" s="320"/>
@@ -3941,7 +3947,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="322"/>
       <c r="B7" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="27">
         <v>245000</v>
@@ -3960,7 +3966,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="322"/>
       <c r="B8" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="27">
         <v>0</v>
@@ -3979,7 +3985,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="322"/>
       <c r="B9" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="27">
         <v>0</v>
@@ -3998,7 +4004,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="322"/>
       <c r="B10" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="30">
         <v>400000</v>
@@ -4017,7 +4023,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="322"/>
       <c r="B11" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
@@ -4036,7 +4042,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="322"/>
       <c r="B12" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="27">
         <v>250000</v>
@@ -4055,7 +4061,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="322"/>
       <c r="B13" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="27">
         <v>450000</v>
@@ -4074,7 +4080,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="322"/>
       <c r="B14" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="27">
         <v>300000</v>
@@ -4093,7 +4099,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="322"/>
       <c r="B15" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="27">
         <v>370000</v>
@@ -5029,7 +5035,7 @@
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="322"/>
       <c r="B3" s="320" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C3" s="320"/>
       <c r="D3" s="320"/>
@@ -5086,7 +5092,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="322"/>
       <c r="B7" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="278">
         <v>0</v>
@@ -5105,7 +5111,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="322"/>
       <c r="B8" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" s="278">
         <v>240000</v>
@@ -5124,7 +5130,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="322"/>
       <c r="B9" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="307">
         <v>46650</v>
@@ -5137,7 +5143,7 @@
         <v>61038</v>
       </c>
       <c r="F9" s="308" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -5145,7 +5151,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="322"/>
       <c r="B10" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="281">
         <v>0</v>
@@ -5164,7 +5170,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="322"/>
       <c r="B11" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="278">
         <v>750000</v>
@@ -5183,7 +5189,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="322"/>
       <c r="B12" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="278">
         <v>935000</v>
@@ -5202,7 +5208,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="322"/>
       <c r="B13" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" s="278">
         <v>295000</v>
@@ -5221,7 +5227,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="322"/>
       <c r="B14" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="278">
         <v>320000</v>
@@ -5240,7 +5246,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="322"/>
       <c r="B15" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C15" s="278">
         <v>100000</v>
@@ -6138,8 +6144,8 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6153,67 +6159,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="325" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="327"/>
-      <c r="M1" s="327"/>
-      <c r="N1" s="327"/>
-      <c r="O1" s="327"/>
-      <c r="P1" s="327"/>
-      <c r="Q1" s="327"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
+      <c r="P1" s="325"/>
+      <c r="Q1" s="325"/>
     </row>
     <row r="2" spans="1:24" s="74" customFormat="1" ht="18">
-      <c r="A2" s="328" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="328"/>
-      <c r="I2" s="328"/>
-      <c r="J2" s="328"/>
-      <c r="K2" s="328"/>
-      <c r="L2" s="328"/>
-      <c r="M2" s="328"/>
-      <c r="N2" s="328"/>
-      <c r="O2" s="328"/>
-      <c r="P2" s="328"/>
-      <c r="Q2" s="328"/>
+      <c r="A2" s="326" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="326"/>
+      <c r="F2" s="326"/>
+      <c r="G2" s="326"/>
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="326"/>
+      <c r="N2" s="326"/>
+      <c r="O2" s="326"/>
+      <c r="P2" s="326"/>
+      <c r="Q2" s="326"/>
     </row>
     <row r="3" spans="1:24" s="75" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="329" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="330"/>
-      <c r="C3" s="330"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="330"/>
-      <c r="G3" s="330"/>
-      <c r="H3" s="330"/>
-      <c r="I3" s="330"/>
-      <c r="J3" s="330"/>
-      <c r="K3" s="330"/>
-      <c r="L3" s="330"/>
-      <c r="M3" s="330"/>
-      <c r="N3" s="330"/>
-      <c r="O3" s="330"/>
-      <c r="P3" s="330"/>
-      <c r="Q3" s="331"/>
+      <c r="A3" s="327" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="328"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328"/>
+      <c r="L3" s="328"/>
+      <c r="M3" s="328"/>
+      <c r="N3" s="328"/>
+      <c r="O3" s="328"/>
+      <c r="P3" s="328"/>
+      <c r="Q3" s="329"/>
       <c r="S3" s="58"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6222,53 +6228,53 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" s="76" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="332" t="s">
+      <c r="A4" s="330" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="332" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="334" t="s">
+      <c r="C4" s="334" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="323" t="s">
+      <c r="D4" s="334" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="323" t="s">
+      <c r="E4" s="334" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="323" t="s">
+      <c r="F4" s="334" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="334" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="323" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="323" t="s">
+      <c r="H4" s="334" t="s">
+        <v>191</v>
+      </c>
+      <c r="I4" s="334" t="s">
+        <v>192</v>
+      </c>
+      <c r="J4" s="334" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="323" t="s">
-        <v>192</v>
-      </c>
-      <c r="I4" s="323" t="s">
-        <v>193</v>
-      </c>
-      <c r="J4" s="323" t="s">
+      <c r="K4" s="334" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="323" t="s">
+      <c r="L4" s="334" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="323" t="s">
+      <c r="M4" s="334" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="323" t="s">
+      <c r="N4" s="334" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="323" t="s">
+      <c r="O4" s="323" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="325" t="s">
-        <v>49</v>
-      </c>
       <c r="P4" s="336" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="137" t="s">
         <v>4</v>
@@ -6280,24 +6286,24 @@
       <c r="W4" s="78"/>
     </row>
     <row r="5" spans="1:24" s="76" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="333"/>
-      <c r="B5" s="335"/>
-      <c r="C5" s="324"/>
-      <c r="D5" s="324"/>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="324"/>
-      <c r="H5" s="324"/>
-      <c r="I5" s="324"/>
-      <c r="J5" s="324"/>
-      <c r="K5" s="324"/>
-      <c r="L5" s="324"/>
-      <c r="M5" s="324"/>
-      <c r="N5" s="324"/>
-      <c r="O5" s="326"/>
+      <c r="A5" s="331"/>
+      <c r="B5" s="333"/>
+      <c r="C5" s="335"/>
+      <c r="D5" s="335"/>
+      <c r="E5" s="335"/>
+      <c r="F5" s="335"/>
+      <c r="G5" s="335"/>
+      <c r="H5" s="335"/>
+      <c r="I5" s="335"/>
+      <c r="J5" s="335"/>
+      <c r="K5" s="335"/>
+      <c r="L5" s="335"/>
+      <c r="M5" s="335"/>
+      <c r="N5" s="335"/>
+      <c r="O5" s="324"/>
       <c r="P5" s="337"/>
       <c r="Q5" s="138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S5" s="80"/>
       <c r="T5" s="81"/>
@@ -6308,7 +6314,7 @@
     </row>
     <row r="6" spans="1:24" s="14" customFormat="1">
       <c r="A6" s="83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="84">
         <v>1000</v>
@@ -6348,7 +6354,7 @@
     </row>
     <row r="7" spans="1:24" s="14" customFormat="1">
       <c r="A7" s="83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="84">
         <v>500</v>
@@ -6392,7 +6398,7 @@
     </row>
     <row r="8" spans="1:24" s="14" customFormat="1">
       <c r="A8" s="83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="91">
         <v>1450</v>
@@ -6429,14 +6435,14 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V8" s="36"/>
       <c r="W8" s="5"/>
     </row>
     <row r="9" spans="1:24" s="14" customFormat="1">
       <c r="A9" s="83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B9" s="91">
         <v>1000</v>
@@ -6454,7 +6460,7 @@
         <v>2360</v>
       </c>
       <c r="I9" s="92">
-        <v>1226</v>
+        <v>1526</v>
       </c>
       <c r="J9" s="93">
         <v>40</v>
@@ -6471,7 +6477,7 @@
       <c r="P9" s="94"/>
       <c r="Q9" s="88">
         <f t="shared" si="0"/>
-        <v>5526</v>
+        <v>5826</v>
       </c>
       <c r="R9" s="89"/>
       <c r="S9" s="10"/>
@@ -6482,7 +6488,7 @@
     </row>
     <row r="10" spans="1:24" s="14" customFormat="1">
       <c r="A10" s="83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="91">
         <v>500</v>
@@ -6522,7 +6528,7 @@
     </row>
     <row r="11" spans="1:24" s="14" customFormat="1">
       <c r="A11" s="83" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="91">
         <v>1350</v>
@@ -6566,7 +6572,7 @@
     </row>
     <row r="12" spans="1:24" s="14" customFormat="1">
       <c r="A12" s="83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B12" s="91">
         <v>500</v>
@@ -6608,7 +6614,7 @@
     </row>
     <row r="13" spans="1:24" s="14" customFormat="1">
       <c r="A13" s="83" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" s="91">
         <v>1200</v>
@@ -7238,7 +7244,7 @@
     </row>
     <row r="37" spans="1:19" s="74" customFormat="1" ht="13.5" thickBot="1">
       <c r="A37" s="108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="109">
         <f>SUM(B6:B36)</f>
@@ -7270,7 +7276,7 @@
       </c>
       <c r="I37" s="110">
         <f t="shared" si="1"/>
-        <v>1226</v>
+        <v>1526</v>
       </c>
       <c r="J37" s="110">
         <f t="shared" si="1"/>
@@ -7302,10 +7308,10 @@
       </c>
       <c r="Q37" s="112">
         <f>SUM(Q6:Q36)</f>
-        <v>21616</v>
+        <v>21916</v>
       </c>
       <c r="S37" s="244" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -7369,7 +7375,7 @@
     </row>
     <row r="44" spans="1:19" s="296" customFormat="1">
       <c r="A44" s="296" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -9306,8 +9312,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9325,6 +9329,8 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9338,7 +9344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
@@ -9468,7 +9474,7 @@
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
       <c r="A2" s="345" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="346"/>
       <c r="C2" s="346"/>
@@ -9569,7 +9575,7 @@
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
       <c r="A3" s="348" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="349"/>
       <c r="C3" s="349"/>
@@ -9673,22 +9679,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="218" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="217" t="s">
+      <c r="D4" s="218" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="218" t="s">
+      <c r="E4" s="218" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="218" t="s">
-        <v>26</v>
       </c>
       <c r="F4" s="218" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="283" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H4" s="69"/>
       <c r="I4" s="154"/>
@@ -9783,7 +9789,7 @@
     </row>
     <row r="5" spans="1:97">
       <c r="A5" s="193" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="56">
         <v>299550</v>
@@ -9895,7 +9901,7 @@
     </row>
     <row r="6" spans="1:97">
       <c r="A6" s="194" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="57">
         <v>330240</v>
@@ -10007,7 +10013,7 @@
     </row>
     <row r="7" spans="1:97">
       <c r="A7" s="194" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7" s="57">
         <v>658670</v>
@@ -10119,7 +10125,7 @@
     </row>
     <row r="8" spans="1:97">
       <c r="A8" s="194" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="57">
         <v>221750</v>
@@ -10231,7 +10237,7 @@
     </row>
     <row r="9" spans="1:97">
       <c r="A9" s="194" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9" s="57">
         <v>413530</v>
@@ -10343,7 +10349,7 @@
     </row>
     <row r="10" spans="1:97">
       <c r="A10" s="194" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B10" s="57">
         <v>286370</v>
@@ -10455,7 +10461,7 @@
     </row>
     <row r="11" spans="1:97">
       <c r="A11" s="194" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="57">
         <v>655560</v>
@@ -10567,20 +10573,20 @@
     </row>
     <row r="12" spans="1:97">
       <c r="A12" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" s="57">
         <v>415190</v>
       </c>
       <c r="C12" s="60">
-        <v>386720</v>
+        <v>451780</v>
       </c>
       <c r="D12" s="57">
         <v>2310</v>
       </c>
       <c r="E12" s="57">
         <f t="shared" si="0"/>
-        <v>389030</v>
+        <v>454090</v>
       </c>
       <c r="F12" s="247"/>
       <c r="G12" s="262">
@@ -12727,7 +12733,7 @@
       </c>
       <c r="C33" s="286">
         <f>SUM(C5:C32)</f>
-        <v>3345976</v>
+        <v>3411036</v>
       </c>
       <c r="D33" s="285">
         <f>SUM(D5:D32)</f>
@@ -12735,11 +12741,11 @@
       </c>
       <c r="E33" s="285">
         <f>SUM(E5:E32)</f>
-        <v>3365546</v>
+        <v>3430606</v>
       </c>
       <c r="F33" s="285">
         <f>B33-E33</f>
-        <v>-84686</v>
+        <v>-149746</v>
       </c>
       <c r="G33" s="287"/>
       <c r="H33" s="150"/>
@@ -12935,7 +12941,7 @@
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="144"/>
       <c r="B35" s="340" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="340"/>
       <c r="D35" s="340"/>
@@ -13035,16 +13041,16 @@
     </row>
     <row r="36" spans="1:97" ht="13.5" thickBot="1">
       <c r="A36" s="217" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" s="217" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="217" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="217" t="s">
+      <c r="D36" s="218" t="s">
         <v>29</v>
-      </c>
-      <c r="D36" s="218" t="s">
-        <v>30</v>
       </c>
       <c r="E36" s="218" t="s">
         <v>0</v>
@@ -13147,19 +13153,19 @@
     </row>
     <row r="37" spans="1:97">
       <c r="A37" s="197" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="260" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C37" s="139" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D37" s="220">
         <v>1000</v>
       </c>
       <c r="E37" s="298" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F37" s="145"/>
       <c r="G37" s="150"/>
@@ -13256,19 +13262,19 @@
     </row>
     <row r="38" spans="1:97">
       <c r="A38" s="197" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" s="128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C38" s="127" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D38" s="221">
         <v>3360</v>
       </c>
       <c r="E38" s="187" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F38" s="143"/>
       <c r="G38" s="150"/>
@@ -13365,19 +13371,19 @@
     </row>
     <row r="39" spans="1:97">
       <c r="A39" s="197" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C39" s="297" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D39" s="221">
         <v>4140</v>
       </c>
       <c r="E39" s="187" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F39" s="143"/>
       <c r="G39" s="150"/>
@@ -13474,19 +13480,19 @@
     </row>
     <row r="40" spans="1:97">
       <c r="A40" s="197" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" s="128" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C40" s="127" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D40" s="221">
         <v>200</v>
       </c>
       <c r="E40" s="187" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F40" s="143"/>
       <c r="G40" s="156"/>
@@ -13583,23 +13589,23 @@
     </row>
     <row r="41" spans="1:97">
       <c r="A41" s="197" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" s="128" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C41" s="127" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D41" s="221">
         <v>2390</v>
       </c>
       <c r="E41" s="187" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F41" s="148"/>
       <c r="G41" s="157" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H41" s="157"/>
       <c r="I41" s="155"/>
@@ -13694,17 +13700,17 @@
     </row>
     <row r="42" spans="1:97">
       <c r="A42" s="197" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42" s="128" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C42" s="127"/>
       <c r="D42" s="221">
         <v>980</v>
       </c>
       <c r="E42" s="187" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F42" s="149"/>
       <c r="G42" s="158" t="s">
@@ -13803,7 +13809,7 @@
     </row>
     <row r="43" spans="1:97">
       <c r="A43" s="197" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" s="66"/>
       <c r="C43" s="127"/>
@@ -13904,7 +13910,7 @@
     </row>
     <row r="44" spans="1:97" ht="13.5" thickBot="1">
       <c r="A44" s="197" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" s="66"/>
       <c r="C44" s="127"/>
@@ -14005,39 +14011,39 @@
     </row>
     <row r="45" spans="1:97" ht="13.5" thickBot="1">
       <c r="A45" s="215" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B45" s="215" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="215" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="215" t="s">
+      <c r="D45" s="222" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="216" t="s">
         <v>109</v>
-      </c>
-      <c r="D45" s="222" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="216" t="s">
-        <v>110</v>
       </c>
       <c r="F45" s="143"/>
       <c r="G45" s="149"/>
       <c r="H45" s="236" t="s">
+        <v>121</v>
+      </c>
+      <c r="I45" s="232" t="s">
         <v>122</v>
       </c>
-      <c r="I45" s="232" t="s">
+      <c r="J45" s="232" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45" s="237" t="s">
         <v>123</v>
       </c>
-      <c r="J45" s="232" t="s">
-        <v>77</v>
-      </c>
-      <c r="K45" s="237" t="s">
-        <v>124</v>
-      </c>
       <c r="L45" s="238" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" s="239" t="s">
         <v>31</v>
-      </c>
-      <c r="M45" s="239" t="s">
-        <v>32</v>
       </c>
       <c r="N45" s="69"/>
       <c r="O45" s="69"/>
@@ -14126,10 +14132,10 @@
     </row>
     <row r="46" spans="1:97">
       <c r="A46" s="240" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46" s="312" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="B46" s="310" t="s">
+        <v>128</v>
       </c>
       <c r="C46" s="139">
         <v>1711460131</v>
@@ -14138,12 +14144,12 @@
         <v>100000</v>
       </c>
       <c r="E46" s="196" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F46" s="142"/>
       <c r="G46" s="149"/>
       <c r="H46" s="204" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I46" s="205">
         <v>1718911905</v>
@@ -14152,7 +14158,7 @@
         <v>387330</v>
       </c>
       <c r="K46" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L46" s="207">
         <v>387330</v>
@@ -14248,24 +14254,16 @@
     </row>
     <row r="47" spans="1:97">
       <c r="A47" s="240" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="127">
-        <v>1712688979</v>
-      </c>
-      <c r="D47" s="224">
-        <v>45300</v>
-      </c>
-      <c r="E47" s="191" t="s">
-        <v>197</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B47" s="61"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="224"/>
+      <c r="E47" s="191"/>
       <c r="F47" s="143"/>
       <c r="G47" s="149"/>
       <c r="H47" s="200" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I47" s="64">
         <v>1723246584</v>
@@ -14274,7 +14272,7 @@
         <v>29856</v>
       </c>
       <c r="K47" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L47" s="140">
         <v>29856</v>
@@ -14370,24 +14368,24 @@
     </row>
     <row r="48" spans="1:97">
       <c r="A48" s="240" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="129" t="s">
         <v>125</v>
-      </c>
-      <c r="B48" s="129" t="s">
-        <v>126</v>
       </c>
       <c r="C48" s="127">
         <v>1718911905</v>
       </c>
       <c r="D48" s="224">
-        <v>624340</v>
+        <v>594340</v>
       </c>
       <c r="E48" s="189" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="F48" s="143"/>
       <c r="G48" s="149"/>
       <c r="H48" s="200" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I48" s="64">
         <v>1733624262</v>
@@ -14396,7 +14394,7 @@
         <v>168306</v>
       </c>
       <c r="K48" s="182" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L48" s="140">
         <v>168306</v>
@@ -14492,22 +14490,22 @@
     </row>
     <row r="49" spans="1:97">
       <c r="A49" s="240" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B49" s="61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C49" s="127"/>
       <c r="D49" s="224">
         <v>200000</v>
       </c>
       <c r="E49" s="191" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F49" s="143"/>
       <c r="G49" s="149"/>
       <c r="H49" s="200" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I49" s="64">
         <v>1711460131</v>
@@ -14516,7 +14514,7 @@
         <v>206500</v>
       </c>
       <c r="K49" s="182" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L49" s="140">
         <v>206500</v>
@@ -14612,22 +14610,22 @@
     </row>
     <row r="50" spans="1:97">
       <c r="A50" s="240" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C50" s="127"/>
       <c r="D50" s="224">
-        <v>68040</v>
+        <v>68280</v>
       </c>
       <c r="E50" s="190" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="F50" s="143"/>
       <c r="G50" s="149"/>
       <c r="H50" s="186" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I50" s="65">
         <v>1716697790</v>
@@ -14636,7 +14634,7 @@
         <v>228825</v>
       </c>
       <c r="K50" s="181" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L50" s="140">
         <v>228825</v>
@@ -14732,22 +14730,22 @@
     </row>
     <row r="51" spans="1:97">
       <c r="A51" s="240" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51" s="129" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C51" s="127"/>
       <c r="D51" s="224">
         <v>30000</v>
       </c>
       <c r="E51" s="189" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F51" s="143"/>
       <c r="G51" s="149"/>
       <c r="H51" s="200" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I51" s="64">
         <v>1712688979</v>
@@ -14756,7 +14754,7 @@
         <v>71530</v>
       </c>
       <c r="K51" s="182" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L51" s="140">
         <v>71530</v>
@@ -14852,17 +14850,17 @@
     </row>
     <row r="52" spans="1:97">
       <c r="A52" s="240" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" s="61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C52" s="127"/>
       <c r="D52" s="224">
         <v>30000</v>
       </c>
       <c r="E52" s="191" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F52" s="143"/>
       <c r="G52" s="149"/>
@@ -14962,22 +14960,22 @@
     </row>
     <row r="53" spans="1:97">
       <c r="A53" s="240" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C53" s="127"/>
       <c r="D53" s="224">
         <v>150000</v>
       </c>
       <c r="E53" s="190" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F53" s="143"/>
       <c r="G53" s="149"/>
       <c r="H53" s="200" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I53" s="64">
         <v>1725821212</v>
@@ -14986,7 +14984,7 @@
         <v>33000</v>
       </c>
       <c r="K53" s="182" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L53" s="140">
         <v>33000</v>
@@ -15089,7 +15087,7 @@
       <c r="F54" s="143"/>
       <c r="G54" s="149"/>
       <c r="H54" s="202" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I54" s="70">
         <v>1743942020</v>
@@ -15098,7 +15096,7 @@
         <v>182359</v>
       </c>
       <c r="K54" s="182" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L54" s="140">
         <v>182359</v>
@@ -15405,16 +15403,16 @@
       <c r="F57" s="143"/>
       <c r="G57" s="149"/>
       <c r="H57" s="200" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I57" s="64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J57" s="60">
         <v>13000</v>
       </c>
       <c r="K57" s="182" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L57" s="140">
         <v>13000</v>
@@ -15517,16 +15515,16 @@
       <c r="F58" s="143"/>
       <c r="G58" s="149"/>
       <c r="H58" s="200" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I58" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J58" s="60">
         <v>2000</v>
       </c>
       <c r="K58" s="182" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L58" s="140">
         <v>2000</v>
@@ -15622,33 +15620,33 @@
     </row>
     <row r="59" spans="1:97">
       <c r="A59" s="241" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59" s="129" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59" s="127" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="224">
         <v>7000</v>
       </c>
       <c r="E59" s="191" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F59" s="143"/>
       <c r="G59" s="149"/>
       <c r="H59" s="200" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I59" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="60">
         <v>22000</v>
       </c>
       <c r="K59" s="182" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L59" s="140">
         <v>22000</v>
@@ -15744,33 +15742,33 @@
     </row>
     <row r="60" spans="1:97">
       <c r="A60" s="241" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C60" s="127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D60" s="224">
         <v>3500</v>
       </c>
       <c r="E60" s="189" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F60" s="143"/>
       <c r="G60" s="149"/>
       <c r="H60" s="186" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I60" s="65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J60" s="180">
         <v>3500</v>
       </c>
       <c r="K60" s="181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L60" s="140">
         <v>3500</v>
@@ -15866,33 +15864,33 @@
     </row>
     <row r="61" spans="1:97">
       <c r="A61" s="241" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61" s="62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C61" s="127" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D61" s="224">
         <v>13500</v>
       </c>
       <c r="E61" s="190" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F61" s="145"/>
       <c r="G61" s="149"/>
       <c r="H61" s="200" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I61" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J61" s="60">
         <v>13500</v>
       </c>
       <c r="K61" s="182" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L61" s="140">
         <v>13500</v>
@@ -15988,33 +15986,33 @@
     </row>
     <row r="62" spans="1:97">
       <c r="A62" s="241" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B62" s="61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C62" s="127" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D62" s="224">
         <v>129590</v>
       </c>
       <c r="E62" s="189" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F62" s="142"/>
       <c r="G62" s="149"/>
       <c r="H62" s="200" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I62" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J62" s="60">
         <v>129590</v>
       </c>
       <c r="K62" s="183" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L62" s="140">
         <v>129590</v>
@@ -16518,33 +16516,33 @@
     </row>
     <row r="67" spans="1:97">
       <c r="A67" s="241" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C67" s="127" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D67" s="224">
         <v>58750</v>
       </c>
       <c r="E67" s="190" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F67" s="143"/>
       <c r="G67" s="149"/>
       <c r="H67" s="200" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I67" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J67" s="60">
         <v>85740</v>
       </c>
       <c r="K67" s="182" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L67" s="140">
         <v>85740</v>
@@ -16640,33 +16638,33 @@
     </row>
     <row r="68" spans="1:97">
       <c r="A68" s="241" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B68" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C68" s="127" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D68" s="224">
         <v>20000</v>
       </c>
       <c r="E68" s="189" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F68" s="143"/>
       <c r="G68" s="149"/>
       <c r="H68" s="200" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I68" s="64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J68" s="60">
         <v>28000</v>
       </c>
       <c r="K68" s="60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L68" s="140">
         <v>28000</v>
@@ -16762,33 +16760,33 @@
     </row>
     <row r="69" spans="1:97">
       <c r="A69" s="241" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B69" s="62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C69" s="127" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D69" s="224">
         <v>11000</v>
       </c>
       <c r="E69" s="190" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F69" s="69"/>
       <c r="G69" s="149"/>
       <c r="H69" s="200" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I69" s="64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J69" s="60">
         <v>16000</v>
       </c>
       <c r="K69" s="127" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L69" s="140">
         <v>16000</v>
@@ -16884,33 +16882,33 @@
     </row>
     <row r="70" spans="1:97">
       <c r="A70" s="241" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B70" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C70" s="127" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D70" s="224">
         <v>19460</v>
       </c>
       <c r="E70" s="190" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F70" s="143"/>
       <c r="G70" s="149"/>
       <c r="H70" s="186" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I70" s="65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J70" s="180">
         <v>29460</v>
       </c>
       <c r="K70" s="181" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L70" s="140">
         <v>29460</v>
@@ -17006,33 +17004,33 @@
     </row>
     <row r="71" spans="1:97">
       <c r="A71" s="241" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B71" s="62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C71" s="127" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D71" s="224">
         <v>33000</v>
       </c>
       <c r="E71" s="190" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F71" s="145"/>
       <c r="G71" s="149"/>
       <c r="H71" s="203" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I71" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J71" s="60">
         <v>33000</v>
       </c>
       <c r="K71" s="127" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L71" s="140">
         <v>33000</v>
@@ -17128,33 +17126,33 @@
     </row>
     <row r="72" spans="1:97">
       <c r="A72" s="241" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B72" s="62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" s="127" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D72" s="224">
         <v>19370</v>
       </c>
       <c r="E72" s="191" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F72" s="145"/>
       <c r="G72" s="149"/>
       <c r="H72" s="186" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I72" s="65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J72" s="180">
         <v>19370</v>
       </c>
       <c r="K72" s="181" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L72" s="140">
         <v>19370</v>
@@ -17250,33 +17248,33 @@
     </row>
     <row r="73" spans="1:97">
       <c r="A73" s="241" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B73" s="62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C73" s="127" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D73" s="224">
         <v>22000</v>
       </c>
       <c r="E73" s="191" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F73" s="145"/>
       <c r="G73" s="149"/>
       <c r="H73" s="200" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I73" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J73" s="60">
         <v>22000</v>
       </c>
       <c r="K73" s="182" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L73" s="140">
         <v>22000</v>
@@ -17372,33 +17370,33 @@
     </row>
     <row r="74" spans="1:97">
       <c r="A74" s="241" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B74" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="127" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D74" s="224">
         <v>10915</v>
       </c>
       <c r="E74" s="189" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F74" s="145"/>
       <c r="G74" s="149"/>
       <c r="H74" s="186" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J74" s="180">
         <v>10915</v>
       </c>
       <c r="K74" s="181" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L74" s="140">
         <v>10915</v>
@@ -17698,17 +17696,17 @@
     </row>
     <row r="77" spans="1:97">
       <c r="A77" s="241" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B77" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C77" s="127"/>
       <c r="D77" s="224">
         <v>400</v>
       </c>
       <c r="E77" s="190" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F77" s="143"/>
       <c r="G77" s="149"/>
@@ -17808,22 +17806,22 @@
     </row>
     <row r="78" spans="1:97">
       <c r="A78" s="241" t="s">
+        <v>219</v>
+      </c>
+      <c r="B78" s="62" t="s">
         <v>220</v>
-      </c>
-      <c r="B78" s="62" t="s">
-        <v>221</v>
       </c>
       <c r="C78" s="127"/>
       <c r="D78" s="224">
         <v>1000</v>
       </c>
       <c r="E78" s="189" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F78" s="143"/>
       <c r="G78" s="149"/>
       <c r="H78" s="200" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I78" s="64">
         <v>1739992171</v>
@@ -17832,7 +17830,7 @@
         <v>17500</v>
       </c>
       <c r="K78" s="182" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L78" s="140">
         <v>17500</v>
@@ -17928,22 +17926,22 @@
     </row>
     <row r="79" spans="1:97">
       <c r="A79" s="241" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" s="62" t="s">
         <v>209</v>
-      </c>
-      <c r="B79" s="62" t="s">
-        <v>210</v>
       </c>
       <c r="C79" s="127"/>
       <c r="D79" s="224">
         <v>19430</v>
       </c>
       <c r="E79" s="190" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F79" s="143"/>
       <c r="G79" s="149"/>
       <c r="H79" s="200" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I79" s="64">
         <v>1758900692</v>
@@ -17952,7 +17950,7 @@
         <v>30000</v>
       </c>
       <c r="K79" s="182" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L79" s="140">
         <v>30000</v>
@@ -18048,19 +18046,19 @@
     </row>
     <row r="80" spans="1:97">
       <c r="A80" s="241" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B80" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C80" s="127" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D80" s="224">
         <v>7000</v>
       </c>
       <c r="E80" s="190" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F80" s="143" t="s">
         <v>13</v>
@@ -18162,31 +18160,31 @@
     </row>
     <row r="81" spans="1:97">
       <c r="A81" s="277" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B81" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C81" s="127"/>
       <c r="D81" s="224">
         <v>27180</v>
       </c>
       <c r="E81" s="190" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F81" s="143"/>
       <c r="G81" s="149"/>
       <c r="H81" s="200" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I81" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J81" s="60">
         <v>9000</v>
       </c>
       <c r="K81" s="182" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L81" s="140">
         <v>9000</v>
@@ -18282,31 +18280,31 @@
     </row>
     <row r="82" spans="1:97">
       <c r="A82" s="241" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B82" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C82" s="127"/>
       <c r="D82" s="224">
         <v>3000</v>
       </c>
       <c r="E82" s="190" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F82" s="145"/>
       <c r="G82" s="149"/>
       <c r="H82" s="200" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I82" s="64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J82" s="60">
         <v>14040</v>
       </c>
       <c r="K82" s="182" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L82" s="140">
         <v>14040</v>
@@ -18402,31 +18400,31 @@
     </row>
     <row r="83" spans="1:97">
       <c r="A83" s="241" t="s">
+        <v>222</v>
+      </c>
+      <c r="B83" s="62" t="s">
         <v>223</v>
-      </c>
-      <c r="B83" s="62" t="s">
-        <v>224</v>
       </c>
       <c r="C83" s="127"/>
       <c r="D83" s="224">
         <v>1060</v>
       </c>
       <c r="E83" s="191" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F83" s="145"/>
       <c r="G83" s="149"/>
       <c r="H83" s="200" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I83" s="64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J83" s="60">
         <v>15000</v>
       </c>
       <c r="K83" s="182" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L83" s="140">
         <v>15000</v>
@@ -18522,31 +18520,31 @@
     </row>
     <row r="84" spans="1:97">
       <c r="A84" s="241" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B84" s="62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C84" s="127"/>
       <c r="D84" s="224">
         <v>6000</v>
       </c>
       <c r="E84" s="189" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F84" s="145"/>
       <c r="G84" s="149"/>
       <c r="H84" s="200" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I84" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J84" s="60">
         <v>20000</v>
       </c>
       <c r="K84" s="182" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L84" s="140">
         <v>20000</v>
@@ -18642,29 +18640,29 @@
     </row>
     <row r="85" spans="1:97">
       <c r="A85" s="241" t="s">
+        <v>202</v>
+      </c>
+      <c r="B85" s="62" t="s">
         <v>203</v>
-      </c>
-      <c r="B85" s="62" t="s">
-        <v>204</v>
       </c>
       <c r="C85" s="127"/>
       <c r="D85" s="224">
         <v>40000</v>
       </c>
       <c r="E85" s="189" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F85" s="145"/>
       <c r="G85" s="149"/>
       <c r="H85" s="200" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I85" s="64"/>
       <c r="J85" s="60">
         <v>2000</v>
       </c>
       <c r="K85" s="182" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L85" s="140">
         <v>2000</v>
@@ -18760,29 +18758,29 @@
     </row>
     <row r="86" spans="1:97">
       <c r="A86" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B86" s="128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C86" s="127"/>
       <c r="D86" s="224">
         <v>20000</v>
       </c>
       <c r="E86" s="190" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F86" s="145"/>
       <c r="G86" s="149"/>
       <c r="H86" s="200" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I86" s="64"/>
       <c r="J86" s="60">
         <v>10000</v>
       </c>
       <c r="K86" s="182" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L86" s="140">
         <v>10000</v>
@@ -18885,14 +18883,14 @@
       <c r="F87" s="143"/>
       <c r="G87" s="149"/>
       <c r="H87" s="200" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I87" s="64"/>
       <c r="J87" s="60">
         <v>7900</v>
       </c>
       <c r="K87" s="182" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L87" s="140">
         <v>7900</v>
@@ -18995,14 +18993,14 @@
       <c r="F88" s="143"/>
       <c r="G88" s="149"/>
       <c r="H88" s="200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I88" s="64"/>
       <c r="J88" s="60">
         <v>2120</v>
       </c>
       <c r="K88" s="182" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L88" s="140">
         <v>2120</v>
@@ -19105,7 +19103,7 @@
       <c r="F89" s="143"/>
       <c r="G89" s="149"/>
       <c r="H89" s="200" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I89" s="64">
         <v>1755626210</v>
@@ -19114,7 +19112,7 @@
         <v>17500</v>
       </c>
       <c r="K89" s="60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L89" s="140">
         <v>17500</v>
@@ -19217,7 +19215,7 @@
       <c r="F90" s="143"/>
       <c r="G90" s="149"/>
       <c r="H90" s="200" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I90" s="64">
         <v>1746818159</v>
@@ -19226,7 +19224,7 @@
         <v>3500</v>
       </c>
       <c r="K90" s="182" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L90" s="140">
         <v>3500</v>
@@ -19329,7 +19327,7 @@
       <c r="F91" s="143"/>
       <c r="G91" s="149"/>
       <c r="H91" s="186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I91" s="65">
         <v>1713632915</v>
@@ -19338,7 +19336,7 @@
         <v>2300</v>
       </c>
       <c r="K91" s="181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L91" s="140">
         <v>2300</v>
@@ -19441,16 +19439,16 @@
       <c r="F92" s="149"/>
       <c r="G92" s="149"/>
       <c r="H92" s="200" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I92" s="64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J92" s="60">
         <v>1000</v>
       </c>
       <c r="K92" s="182" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L92" s="140">
         <v>1000</v>
@@ -19553,16 +19551,16 @@
       <c r="F93" s="149"/>
       <c r="G93" s="149"/>
       <c r="H93" s="200" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I93" s="64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J93" s="60">
         <v>3360</v>
       </c>
       <c r="K93" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L93" s="140">
         <v>3360</v>
@@ -21393,11 +21391,19 @@
       <c r="CS110" s="149"/>
     </row>
     <row r="111" spans="1:97">
-      <c r="A111" s="241"/>
-      <c r="B111" s="62"/>
+      <c r="A111" s="241" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" s="62" t="s">
+        <v>227</v>
+      </c>
       <c r="C111" s="127"/>
-      <c r="D111" s="224"/>
-      <c r="E111" s="191"/>
+      <c r="D111" s="224">
+        <v>10000</v>
+      </c>
+      <c r="E111" s="191" t="s">
+        <v>217</v>
+      </c>
       <c r="F111" s="149"/>
       <c r="G111" s="149"/>
       <c r="H111" s="200"/>
@@ -21496,10 +21502,10 @@
     </row>
     <row r="112" spans="1:97">
       <c r="A112" s="241" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B112" s="61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C112" s="243">
         <v>1739992171</v>
@@ -21508,7 +21514,7 @@
         <v>17500</v>
       </c>
       <c r="E112" s="191" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F112" s="149"/>
       <c r="G112" s="149"/>
@@ -21608,10 +21614,10 @@
     </row>
     <row r="113" spans="1:97">
       <c r="A113" s="241" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113" s="62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C113" s="127">
         <v>1758900692</v>
@@ -21620,7 +21626,7 @@
         <v>30000</v>
       </c>
       <c r="E113" s="191" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F113" s="149"/>
       <c r="G113" s="149"/>
@@ -21720,17 +21726,17 @@
     </row>
     <row r="114" spans="1:97">
       <c r="A114" s="241" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B114" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C114" s="127"/>
       <c r="D114" s="224">
         <v>490</v>
       </c>
       <c r="E114" s="191" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F114" s="149"/>
       <c r="G114" s="149"/>
@@ -21830,17 +21836,17 @@
     </row>
     <row r="115" spans="1:97">
       <c r="A115" s="241" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115" s="62" t="s">
         <v>174</v>
-      </c>
-      <c r="B115" s="62" t="s">
-        <v>175</v>
       </c>
       <c r="C115" s="127"/>
       <c r="D115" s="224">
         <v>2120</v>
       </c>
       <c r="E115" s="191" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F115" s="149"/>
       <c r="G115" s="149"/>
@@ -21940,10 +21946,10 @@
     </row>
     <row r="116" spans="1:97">
       <c r="A116" s="241" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B116" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C116" s="127">
         <v>1755626210</v>
@@ -21952,7 +21958,7 @@
         <v>17500</v>
       </c>
       <c r="E116" s="191" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F116" s="149"/>
       <c r="G116" s="149"/>
@@ -22052,10 +22058,10 @@
     </row>
     <row r="117" spans="1:97">
       <c r="A117" s="241" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" s="62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C117" s="127">
         <v>1746818159</v>
@@ -22064,7 +22070,7 @@
         <v>3500</v>
       </c>
       <c r="E117" s="191" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F117" s="149"/>
       <c r="G117" s="149"/>
@@ -22164,10 +22170,10 @@
     </row>
     <row r="118" spans="1:97" ht="13.5" thickBot="1">
       <c r="A118" s="242" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B118" s="185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C118" s="127">
         <v>1713632915</v>
@@ -22176,7 +22182,7 @@
         <v>2300</v>
       </c>
       <c r="E118" s="192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F118" s="149"/>
       <c r="G118" s="149"/>
@@ -22276,13 +22282,13 @@
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
       <c r="A119" s="338" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B119" s="339"/>
       <c r="C119" s="351"/>
       <c r="D119" s="227">
         <f>SUM(D37:D118)</f>
-        <v>1806315</v>
+        <v>1741255</v>
       </c>
       <c r="E119" s="219"/>
       <c r="F119" s="149"/>
@@ -22483,13 +22489,13 @@
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
       <c r="A121" s="338" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B121" s="339"/>
       <c r="C121" s="339"/>
       <c r="D121" s="227">
         <f>D119+M121</f>
-        <v>1806315</v>
+        <v>1741255</v>
       </c>
       <c r="E121" s="219"/>
       <c r="F121" s="149"/>
@@ -33721,8 +33727,8 @@
   </sheetPr>
   <dimension ref="A1:AC219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33742,7 +33748,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
       <c r="A1" s="352" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="353"/>
       <c r="C1" s="353"/>
@@ -33753,7 +33759,7 @@
     </row>
     <row r="2" spans="1:29" ht="21.75">
       <c r="A2" s="361" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="362"/>
       <c r="C2" s="362"/>
@@ -33764,7 +33770,7 @@
     </row>
     <row r="3" spans="1:29" ht="23.25">
       <c r="A3" s="355" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" s="356"/>
       <c r="C3" s="356"/>
@@ -33797,12 +33803,12 @@
     </row>
     <row r="4" spans="1:29" ht="23.25">
       <c r="A4" s="364" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="365"/>
       <c r="C4" s="302"/>
       <c r="D4" s="366" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="367"/>
       <c r="F4" s="5"/>
@@ -33832,7 +33838,7 @@
     </row>
     <row r="5" spans="1:29" ht="21.75">
       <c r="A5" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="270">
         <v>8000000</v>
@@ -33886,7 +33892,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="292"/>
       <c r="H6" s="292" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" s="292"/>
       <c r="J6" s="8"/>
@@ -33914,11 +33920,11 @@
       <c r="A7" s="273"/>
       <c r="B7" s="270"/>
       <c r="C7" s="45"/>
-      <c r="D7" s="311" t="s">
-        <v>73</v>
+      <c r="D7" s="309" t="s">
+        <v>72</v>
       </c>
       <c r="E7" s="266">
-        <v>562797.89913333673</v>
+        <v>27857.89913333673</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="292"/>
@@ -34015,11 +34021,11 @@
         <v>21616</v>
       </c>
       <c r="C10" s="44"/>
-      <c r="D10" s="313" t="s">
+      <c r="D10" s="311" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="314">
-        <v>1806315</v>
+      <c r="E10" s="312">
+        <v>1741255</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="254"/>
@@ -34048,14 +34054,14 @@
     </row>
     <row r="11" spans="1:29" ht="21.75">
       <c r="A11" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="270">
         <v>0</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="266">
         <v>95910</v>
@@ -34095,13 +34101,13 @@
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E12" s="269">
         <v>201462</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="255"/>
       <c r="H12" s="1" t="s">
@@ -34163,8 +34169,12 @@
       <c r="AC13" s="8"/>
     </row>
     <row r="14" spans="1:29" ht="21.75">
-      <c r="A14" s="309"/>
-      <c r="B14" s="310"/>
+      <c r="A14" s="252" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="271">
+        <v>600000</v>
+      </c>
       <c r="C14" s="44"/>
       <c r="D14" s="134"/>
       <c r="E14" s="268"/>
@@ -34200,7 +34210,7 @@
       </c>
       <c r="B15" s="272">
         <f>B5+B6+B7+B8-B10-B11-B14</f>
-        <v>8065386.0193666667</v>
+        <v>7465386.0193666667</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="44" t="s">
@@ -34208,7 +34218,7 @@
       </c>
       <c r="E15" s="269">
         <f>E5+E6+E7+E10+E11+E12</f>
-        <v>8065386.0193666667</v>
+        <v>7465386.0193666667</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="121">
@@ -34253,7 +34263,7 @@
         <v>13</v>
       </c>
       <c r="J16" s="120" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -34312,17 +34322,17 @@
     </row>
     <row r="18" spans="1:29" ht="21.75">
       <c r="A18" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="52">
         <v>58750</v>
       </c>
       <c r="C18" s="43"/>
-      <c r="D18" s="315" t="s">
+      <c r="D18" s="313" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="316">
-        <v>624340</v>
+      <c r="E18" s="314">
+        <v>594340</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="18"/>
@@ -34351,16 +34361,16 @@
     </row>
     <row r="19" spans="1:29" ht="21.75">
       <c r="A19" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="53">
         <v>20000</v>
       </c>
       <c r="C19" s="43"/>
-      <c r="D19" s="315" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" s="316">
+      <c r="D19" s="313" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="314">
         <v>200000</v>
       </c>
       <c r="G19" s="19"/>
@@ -34389,16 +34399,16 @@
     </row>
     <row r="20" spans="1:29" ht="21.75">
       <c r="A20" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="53">
         <v>33000</v>
       </c>
       <c r="C20" s="43"/>
-      <c r="D20" s="317" t="s">
-        <v>211</v>
-      </c>
-      <c r="E20" s="318">
+      <c r="D20" s="315" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="316">
         <v>150000</v>
       </c>
       <c r="H20" s="8"/>
@@ -34426,16 +34436,16 @@
     </row>
     <row r="21" spans="1:29" ht="21.75">
       <c r="A21" s="274" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B21" s="276">
         <v>19600</v>
       </c>
       <c r="C21" s="43"/>
-      <c r="D21" s="315" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="316">
+      <c r="D21" s="313" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="314">
         <v>100000</v>
       </c>
       <c r="H21" s="37"/>
@@ -34463,16 +34473,16 @@
     </row>
     <row r="22" spans="1:29" ht="21.75">
       <c r="A22" s="130" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="131">
         <v>19460</v>
       </c>
       <c r="C22" s="43"/>
-      <c r="D22" s="315" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="316">
+      <c r="D22" s="313" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="314">
         <v>68040</v>
       </c>
       <c r="G22" s="37"/>
@@ -34501,17 +34511,17 @@
     </row>
     <row r="23" spans="1:29" ht="21.75">
       <c r="A23" s="275" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="131">
         <v>22030</v>
       </c>
       <c r="C23" s="132"/>
-      <c r="D23" s="315" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="316">
-        <v>45300</v>
+      <c r="D23" s="313" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="314">
+        <v>30000</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="8"/>
@@ -34539,16 +34549,16 @@
     </row>
     <row r="24" spans="1:29" ht="21.75">
       <c r="A24" s="275" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="131">
         <v>28000</v>
       </c>
       <c r="C24" s="132"/>
-      <c r="D24" s="315" t="s">
+      <c r="D24" s="313" t="s">
         <v>213</v>
       </c>
-      <c r="E24" s="316">
+      <c r="E24" s="314">
         <v>30000</v>
       </c>
       <c r="G24" s="18"/>
@@ -34577,17 +34587,17 @@
     </row>
     <row r="25" spans="1:29" ht="21.75">
       <c r="A25" s="275" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B25" s="131">
         <v>20000</v>
       </c>
       <c r="C25" s="132"/>
-      <c r="D25" s="315" t="s">
-        <v>214</v>
-      </c>
-      <c r="E25" s="316">
-        <v>30000</v>
+      <c r="D25" s="317" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="318">
+        <v>20000</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="8"/>
@@ -34615,14 +34625,14 @@
     </row>
     <row r="26" spans="1:29" ht="22.5" thickBot="1">
       <c r="A26" s="303" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="304">
         <v>40000</v>
       </c>
       <c r="C26" s="133"/>
       <c r="D26" s="300" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="301">
         <v>129725</v>
